--- a/sinkhole_data/구별/금정구.xlsx
+++ b/sinkhole_data/구별/금정구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C939361-4304-4DB5-AA29-E82807F6E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76911C8A-C165-481C-BA83-B3CE3EC6D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
-  <si>
-    <t>부산광역시 금정구 구서동의 한 상가 앞 도로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+  <si>
+    <t>부산광역시 금정구 금강로 279-1 앞 교차로</t>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원인 미기재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 금정구 금강로 279-1 앞 교차로</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>도로함몰부 백호로 석분 되메우기 후 주변 안전휀스 설치</t>
@@ -95,15 +83,15 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -116,7 +104,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -126,27 +114,195 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금정구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구서동의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미기재</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,32 +329,21 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -264,34 +409,34 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,102 +743,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>43301</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7">
         <v>0.8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>0.8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>32</v>
+      <c r="H2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>43439</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="H3" s="10">
         <v>129.08541989022899</v>
@@ -703,26 +847,26 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>43681</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.8</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>0.8</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H4" s="10">
         <v>129.08772590458099</v>
@@ -730,29 +874,29 @@
       <c r="I4" s="10">
         <v>35.280123973665297</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>44052</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H5" s="10">
         <v>129.09896615023601</v>
@@ -762,26 +906,26 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>44062</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="10">
         <v>129.08390883138401</v>
@@ -789,29 +933,29 @@
       <c r="I6" s="10">
         <v>35.242657163767198</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>44071</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="10">
         <v>129.095765529771</v>
@@ -819,29 +963,29 @@
       <c r="I7" s="10">
         <v>35.222771325118799</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>44426</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="10">
         <v>129.06807617989199</v>
@@ -849,29 +993,29 @@
       <c r="I8" s="10">
         <v>35.240766095038197</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>44737</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>1.5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>1.5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H9" s="10">
         <v>129.11536437880801</v>
@@ -879,29 +1023,29 @@
       <c r="I9" s="10">
         <v>35.216293508760302</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>45188</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>0.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H10" s="10">
         <v>129.07868642696701</v>
@@ -909,10 +1053,15 @@
       <c r="I10" s="10">
         <v>35.228698105990901</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>